--- a/biology/Botanique/Square_Paul-Grimault/Square_Paul-Grimault.xlsx
+++ b/biology/Botanique/Square_Paul-Grimault/Square_Paul-Grimault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Paul-Grimault, anciennement square de la Fontaine-à-Mulard, est un espace vert du 13e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est situé à proximité de l'ancienne gare de la Glacière-Gentilly au croisement des rues Bobillot et de la Fontaine-à-Mulard.
 Le square Paul-Grimault est notamment accessible en transports en commun par la ligne 3a du tramway d'Île-de-France à l'arrêt Stade Charléty (via la rue Cacheux).
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il rend honneur au dessinateur Paul Grimault (1905-1994), auteur de plusieurs films d'animation et habitant du quartier.
 </t>
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Créé en 1942, sous le nom de « square de la Fontaine-à-Mulard » car il évoquait la « fontaine à Mulard » qui était située à l'extrémité de la rue de la Fontaine-à-Mulard, au niveau de la place de Rungis, il est renommé « square Paul-Grimault » en janvier 2001.
 </t>
@@ -606,7 +624,9 @@
           <t>Équipements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une surface de 3 705 m2, le square est composé d'un plateau sablé entouré d'un mail de tilleuls et agrémenté d'une aire de jeux pour enfants à sol amortissant et de deux tables de ping-pong en ciment. Des buissons de lagerstroemias séparent les différents espaces. Le square est équipé de sanitaires publics et offre un accès internet par Wi-Fi grâce au programme de la mairie de Paris.
 </t>
@@ -637,7 +657,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Fiche sur Paul Grimault du Forum des images</t>
         </is>
